--- a/LR_1/LR_1/bin/Debug/netcoreapp3.0/AnnaXlsx.xlsx
+++ b/LR_1/LR_1/bin/Debug/netcoreapp3.0/AnnaXlsx.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView activeTab="-1"/>
+    <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="StudentAndSummaryMarkInfo" sheetId="1" r:id="rId3"/>
+    <sheet name="StudentAndSummaryMarkInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
